--- a/Planning/Menus.xlsx
+++ b/Planning/Menus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Video Games\ZeldasAdventureRemastered\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Repos\ZeldasAdventureRemastered\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA874F6D-90AA-4575-8B63-4297FC207023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847076CD-8129-40DA-B3F1-2BB845BDBFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="315">
   <si>
     <t>"Settings"</t>
   </si>
@@ -431,9 +429,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>"Spawn_Overworld"</t>
-  </si>
-  <si>
     <t>global.</t>
   </si>
   <si>
@@ -464,12 +459,6 @@
     <t>DefeatedEnemyList</t>
   </si>
   <si>
-    <t>CurrentRupees</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>CurrentTile</t>
   </si>
   <si>
@@ -479,18 +468,12 @@
     <t>DebugMode</t>
   </si>
   <si>
-    <t>Inventory</t>
-  </si>
-  <si>
     <t>CurrentSpell</t>
   </si>
   <si>
     <t>NewSoundtrack</t>
   </si>
   <si>
-    <t>DesiredRupees</t>
-  </si>
-  <si>
     <t>Subtitle</t>
   </si>
   <si>
@@ -546,9 +529,6 @@
   </si>
   <si>
     <t>ChangePage("SettingsPage","MainMenuPage")</t>
-  </si>
-  <si>
-    <t>{MainMenuPage : 0, SettingsPage : 1, GraphicsPage : 2, AudioPage : 3, GameplayPage : 4, ControlsPage : 5}</t>
   </si>
   <si>
     <t>ChangePage("GraphicsPage","SettingsPage")</t>
@@ -655,33 +635,18 @@
     </r>
   </si>
   <si>
-    <t>Save Variables</t>
-  </si>
-  <si>
-    <t>ConqueredShrines</t>
-  </si>
-  <si>
     <t>{x: 6, y: 22}</t>
   </si>
   <si>
     <t>{x: 12, y: 8}</t>
   </si>
   <si>
-    <t>{Treasures: global.Inventory_Treasure, Spells: global.Inventory_Spell}</t>
-  </si>
-  <si>
     <t>{x: 192, y: 128}</t>
   </si>
   <si>
-    <t>ConquerShrine</t>
-  </si>
-  <si>
     <t>CelestialSigns</t>
   </si>
   <si>
-    <t>QuestProgress</t>
-  </si>
-  <si>
     <t>[[Earth,0],[Illusion,0],[Air,0],[Destiny,0],[Water,0],[Strength,0],[Fire,0]]</t>
   </si>
   <si>
@@ -2053,6 +2018,24 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>"Overworld"</t>
+  </si>
+  <si>
+    <t>{MainMenuPage, SettingsPage, GraphicsPage, AudioPage, GameplayPage, ControlsPage}</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>Save Specific</t>
+  </si>
+  <si>
+    <t>DesiredRubies</t>
+  </si>
+  <si>
+    <t>CurrentRubies</t>
   </si>
 </sst>
 </file>
@@ -2670,26 +2653,26 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="31.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1"/>
-    <col min="11" max="11" width="29.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="63.33203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="37.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="63.28515625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
@@ -2700,7 +2683,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
@@ -2714,14 +2697,14 @@
         <v>39</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -2732,7 +2715,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -2743,7 +2726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
@@ -2754,7 +2737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -2765,7 +2748,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
@@ -2776,7 +2759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -2787,7 +2770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>0</v>
       </c>
@@ -2795,16 +2778,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -2815,7 +2798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2825,7 +2808,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
@@ -2839,13 +2822,13 @@
         <v>39</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>4</v>
       </c>
@@ -2853,16 +2836,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
@@ -2870,16 +2853,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
@@ -2887,17 +2870,17 @@
         <v>9</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
@@ -2905,17 +2888,17 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -2923,17 +2906,17 @@
         <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -2944,7 +2927,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
@@ -2958,14 +2941,14 @@
         <v>39</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
@@ -2983,7 +2966,7 @@
       </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
@@ -3001,7 +2984,7 @@
       </c>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>50</v>
       </c>
@@ -3019,7 +3002,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>15</v>
       </c>
@@ -3027,11 +3010,11 @@
         <v>9</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>45</v>
       </c>
@@ -3041,7 +3024,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
@@ -3061,7 +3044,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>48</v>
       </c>
@@ -3081,7 +3064,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>47</v>
       </c>
@@ -3101,7 +3084,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>46</v>
       </c>
@@ -3121,7 +3104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>66</v>
       </c>
@@ -3141,7 +3124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>49</v>
       </c>
@@ -3161,19 +3144,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K41" s="8"/>
       <c r="L41" s="18"/>
     </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K42" s="8"/>
       <c r="L42" s="18"/>
     </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K43" s="8"/>
       <c r="L43" s="18"/>
     </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K44" s="8"/>
       <c r="L44" s="18"/>
     </row>
@@ -3184,28 +3167,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A0126-85BB-46A8-9E0D-508D2852D6DD}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" style="1" customWidth="1"/>
-    <col min="5" max="5" width="52.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="112.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="52.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="112.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>91</v>
@@ -3220,12 +3203,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>94</v>
@@ -3241,15 +3224,15 @@
         <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>94</v>
@@ -3258,7 +3241,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f t="shared" ref="E3:E37" si="0">_xlfn.CONCAT(A3,B3," = ",D3,";")</f>
+        <f t="shared" ref="E3:E34" si="0">_xlfn.CONCAT(A3,B3," = ",D3,";")</f>
         <v>global.FadeSpeed = 8;</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3268,12 +3251,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>94</v>
@@ -3289,15 +3272,15 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>94</v>
@@ -3316,15 +3299,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>90</v>
@@ -3340,18 +3323,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3364,15 +3347,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>88</v>
@@ -3388,12 +3371,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>313</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>94</v>
@@ -3402,561 +3385,497 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>global.DesiredRupees = 0;</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT(A9,B9," = ",D9,";")</f>
+        <v>global.DesiredRubies = 0;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A10,B10," = ",D10,";")</f>
         <v>global.Subtitle = "";</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>global.Inventory = {Treasures: global.Inventory_Treasure, Spells: global.Inventory_Spell};</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>_xlfn.CONCAT(A11,B11," = ",D11,";")</f>
+        <v>global.CurrentTreasure = global.Inventory_Treasure(0);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>global.CurrentTreasure = global.Inventory_Treasure(0);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT(A12,B12," = ",D12,";")</f>
+        <v>global.CurrentSpell = global.Inventory_Spell(0);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>112</v>
+        <v>311</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>_xlfn.CONCAT(A13," ",B13," ",D13,";")</f>
+        <v>enum MenuPage {MainMenuPage, SettingsPage, GraphicsPage, AudioPage, GameplayPage, ControlsPage};</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f t="shared" ref="E17:E22" si="1">_xlfn.CONCAT(A17,B17," = ",D17,";")</f>
+        <v>global.DebugMode = True;</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>global.CurrentSpell = global.Inventory_Spell(0);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>global.MenuPage = {MainMenuPage : 0, SettingsPage : 1, GraphicsPage : 2, AudioPage : 3, GameplayPage : 4, ControlsPage : 5};</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F16" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="2"/>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>global.WindowScale = 3;</v>
+      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>global.Fullscreen = 0;</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <f t="shared" ref="E19:E24" si="1">_xlfn.CONCAT(A19,B19," = ",D19,";")</f>
-        <v>global.DebugMode = True;</v>
-      </c>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>global.WindowScale = 3;</v>
+        <v>global.NewSoundtrack = True;</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
+        <v>119</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>global.Fullscreen = 0;</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>global.ShowSubtitles = true;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>global.NewSoundtrack = True;</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>global.ShowSubtitles = true;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="1" t="s">
+        <v>global.Language = "en";</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>global.Language = "en";</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>global.Name = "EMPTY";</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="1">
+        <v>60</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>global.CurrentHealth = 60;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>24</v>
+        <v>94</v>
+      </c>
+      <c r="D27" s="1">
+        <v>60</v>
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>global.Name = "EMPTY";</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>global.MaxHealth = 60;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>118</v>
+        <v>95</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="1">
-        <v>60</v>
+      <c r="D28" s="3">
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>global.CurrentHealth = 60;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>global.DamagePerHit = 10;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="1">
-        <v>60</v>
+        <v>93</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>309</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>global.MaxHealth = 60;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>global.CurrentLocation = "Overworld";</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="3">
-        <v>10</v>
+      <c r="D30" s="1">
+        <v>0</v>
       </c>
       <c r="E30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>global.DamagePerHit = 10;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>global.CurrentRubies = 0;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="E31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>global.CurrentLocation = "Spawn_Overworld";</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT(A31,B31," = ",D31,";")</f>
+        <v>global.CurrentTile = {x: 6, y: 22};</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>global.CurrentRupees = 0;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>global.PlayerSpawn = {x: 192, y: 128};</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
+        <v>116</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>global.Location = 0;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>global.Inventory_Spell = [Spell.Nothing];</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>global.CurrentTile = {x: 6, y: 22};</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>global.Inventory_Treasure = [Treasure.Nothing];</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>global.PlayerSpawn = {x: 192, y: 128};</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>global.Inventory_Spell = [Spell.Nothing];</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>global.Inventory_Treasure = [Treasure.Nothing];</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="4" t="str">
-        <f>_xlfn.CONCAT(A38,B38," = ",D38,";")</f>
+        <v>116</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="4" t="str">
+        <f>_xlfn.CONCAT(A35,B35," = ",D35,";")</f>
         <v>global.CelestialSigns = [[Earth,0],[Illusion,0],[Air,0],[Destiny,0],[Water,0],[Strength,0],[Fire,0]];</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="str">
-        <f t="shared" ref="A44:A55" si="2">_xlfn.CONCAT("[",B27,",",D27,"]")</f>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="str">
+        <f>_xlfn.CONCAT("[",B25,",",D25,"]")</f>
         <v>[Name,"EMPTY"]</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="str">
+        <f>_xlfn.CONCAT("[",B26,",",D26,"]")</f>
+        <v>[CurrentHealth,60]</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="str">
+        <f>_xlfn.CONCAT("[",B27,",",D27,"]")</f>
+        <v>[MaxHealth,60]</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="str">
+        <f>_xlfn.CONCAT("[",B28,",",D28,"]")</f>
+        <v>[DamagePerHit,10]</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="str">
+        <f>_xlfn.CONCAT("[",B29,",",D29,"]")</f>
+        <v>[CurrentLocation,"Overworld"]</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>[CurrentHealth,60]</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>[MaxHealth,60]</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT("[",B30,",",D30,"]")</f>
+        <v>[CurrentRubies,0]</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="e">
+        <f>_xlfn.CONCAT("[",#REF!,",",#REF!,"]")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>[DamagePerHit,10]</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>[CurrentLocation,"Spawn_Overworld"]</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+        <f>_xlfn.CONCAT("[",B31,",",D31,"]")</f>
+        <v>[CurrentTile,{x: 6, y: 22}]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="str">
+        <f t="shared" ref="A48:A51" si="2">_xlfn.CONCAT("[",B32,",",D32,"]")</f>
+        <v>[PlayerSpawn,{x: 192, y: 128}]</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>[CurrentRupees,0]</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+        <v>[Inventory_Spell,[Spell.Nothing]]</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>[Location,0]</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>[CurrentTile,{x: 6, y: 22}]</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>[PlayerSpawn,{x: 192, y: 128}]</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>[Inventory_Spell,[Spell.Nothing]]</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="str">
-        <f t="shared" si="2"/>
         <v>[Inventory_Treasure,[Treasure.Nothing]]</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="str">
+    <row r="51" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="str">
         <f t="shared" si="2"/>
         <v>[CelestialSigns,[[Earth,0],[Illusion,0],[Air,0],[Destiny,0],[Water,0],[Strength,0],[Fire,0]]]</v>
       </c>
@@ -3975,16 +3894,16 @@
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="9.109375" style="8"/>
-    <col min="12" max="12" width="49.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="9.140625" style="8"/>
+    <col min="12" max="12" width="49.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>34</v>
       </c>
@@ -4022,7 +3941,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>87</v>
       </c>
@@ -4063,7 +3982,7 @@
         <v>Shrine_Earth_Outside:{TileX:6,TileY:31,PlayerX:266,PlayerY:74},</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>76</v>
       </c>
@@ -4071,7 +3990,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>77</v>
       </c>
@@ -4088,766 +4007,766 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E57697-7125-431C-8E9A-2A46B6506042}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D9"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.77734375" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" style="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="32" customWidth="1"/>
-    <col min="4" max="4" width="92.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="30"/>
-    <col min="6" max="16384" width="8.88671875" style="28"/>
+    <col min="4" max="4" width="92.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="30"/>
+    <col min="6" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="37"/>
+    </row>
+    <row r="5" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="37"/>
+    </row>
+    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="38"/>
+    </row>
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="38"/>
+    </row>
+    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="38"/>
+    </row>
+    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="38"/>
+    </row>
+    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="38"/>
+    </row>
+    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" s="37"/>
-    </row>
-    <row r="5" spans="1:4" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="D5" s="37"/>
-    </row>
-    <row r="6" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="D7" s="37"/>
-    </row>
-    <row r="8" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="37"/>
-    </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="D11" s="38"/>
-    </row>
-    <row r="12" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="D12" s="38"/>
-    </row>
-    <row r="13" spans="1:4" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="D13" s="38"/>
-    </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="D14" s="38"/>
-    </row>
-    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="D15" s="38"/>
-    </row>
-    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D16" s="38"/>
-    </row>
-    <row r="17" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="32" t="s">
+      <c r="C30" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
         <v>306</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="202.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
-        <v>317</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="31" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="31" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="31" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="31" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="31" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="31" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D68" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="31" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="31" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="27" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="D68" s="32" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="31" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="31" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="27" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="31" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/Menus.xlsx
+++ b/Planning/Menus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Repos\ZeldasAdventureRemastered\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847076CD-8129-40DA-B3F1-2BB845BDBFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66802FAA-A135-416B-AFB1-BFBC04D0B43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="315">
   <si>
     <t>"Settings"</t>
   </si>
@@ -665,9 +665,6 @@
     <t>Treasures</t>
   </si>
   <si>
-    <t>Weapons</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -2036,6 +2033,9 @@
   </si>
   <si>
     <t>CurrentRubies</t>
+  </si>
+  <si>
+    <t>Spells</t>
   </si>
 </sst>
 </file>
@@ -2216,7 +2216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2324,6 +2324,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3169,7 +3172,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A0126-85BB-46A8-9E0D-508D2852D6DD}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -3376,7 +3379,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>94</v>
@@ -3445,16 +3448,16 @@
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>_xlfn.CONCAT(A13," ",B13," ",D13,";")</f>
@@ -3598,7 +3601,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>91</v>
@@ -3690,7 +3693,7 @@
         <v>93</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3702,7 +3705,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>94</v>
@@ -3810,37 +3813,37 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="str">
-        <f>_xlfn.CONCAT("[",B25,",",D25,"]")</f>
+        <f t="shared" ref="A40:A45" si="2">_xlfn.CONCAT("[",B25,",",D25,"]")</f>
         <v>[Name,"EMPTY"]</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="str">
-        <f>_xlfn.CONCAT("[",B26,",",D26,"]")</f>
+        <f t="shared" si="2"/>
         <v>[CurrentHealth,60]</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="str">
-        <f>_xlfn.CONCAT("[",B27,",",D27,"]")</f>
+        <f t="shared" si="2"/>
         <v>[MaxHealth,60]</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="str">
-        <f>_xlfn.CONCAT("[",B28,",",D28,"]")</f>
+        <f t="shared" si="2"/>
         <v>[DamagePerHit,10]</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="26" t="str">
-        <f>_xlfn.CONCAT("[",B29,",",D29,"]")</f>
+        <f t="shared" si="2"/>
         <v>[CurrentLocation,"Overworld"]</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="str">
-        <f>_xlfn.CONCAT("[",B30,",",D30,"]")</f>
+        <f t="shared" si="2"/>
         <v>[CurrentRubies,0]</v>
       </c>
     </row>
@@ -3858,25 +3861,25 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="str">
-        <f t="shared" ref="A48:A51" si="2">_xlfn.CONCAT("[",B32,",",D32,"]")</f>
+        <f t="shared" ref="A48:A51" si="3">_xlfn.CONCAT("[",B32,",",D32,"]")</f>
         <v>[PlayerSpawn,{x: 192, y: 128}]</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>[Inventory_Spell,[Spell.Nothing]]</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>[Inventory_Treasure,[Treasure.Nothing]]</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>[CelestialSigns,[[Earth,0],[Illusion,0],[Air,0],[Destiny,0],[Water,0],[Strength,0],[Fire,0]]]</v>
       </c>
     </row>
@@ -4005,10 +4008,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E57697-7125-431C-8E9A-2A46B6506042}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4026,421 +4029,421 @@
         <v>151</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>273</v>
+        <v>254</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="37"/>
+        <v>227</v>
+      </c>
+      <c r="D4" s="38"/>
     </row>
     <row r="5" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D5" s="37"/>
+        <v>228</v>
+      </c>
+      <c r="D5" s="38"/>
     </row>
     <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="37"/>
+        <v>229</v>
+      </c>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D7" s="37"/>
+        <v>275</v>
+      </c>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D8" s="37"/>
+        <v>230</v>
+      </c>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="37"/>
+        <v>231</v>
+      </c>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11" s="38"/>
+        <v>273</v>
+      </c>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="38"/>
+        <v>276</v>
+      </c>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="38"/>
+        <v>277</v>
+      </c>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="38"/>
+        <v>278</v>
+      </c>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" s="38"/>
+        <v>280</v>
+      </c>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="D16" s="38"/>
+        <v>281</v>
+      </c>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B17" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>259</v>
-      </c>
       <c r="D17" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>254</v>
-      </c>
       <c r="C18" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C19" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>262</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>293</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="D25" s="33" t="s">
         <v>291</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>218</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -4448,7 +4451,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -4456,7 +4459,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -4464,7 +4467,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -4472,7 +4475,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -4480,7 +4483,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -4488,7 +4491,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -4496,277 +4499,338 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+    </row>
+    <row r="43" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+    </row>
+    <row r="46" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+    </row>
+    <row r="47" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+    </row>
+    <row r="48" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+    </row>
+    <row r="49" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
+    <row r="62" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="31" t="s">
+    <row r="64" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+    </row>
+    <row r="65" spans="1:4" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="B64" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="B65" s="32" t="s">
+    </row>
+    <row r="66" spans="1:4" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D65" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D66" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B68" s="32" t="s">
         <v>249</v>
       </c>
+      <c r="C68" s="32"/>
       <c r="D68" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="27" t="s">
+      <c r="B69" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+    </row>
+    <row r="72" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+    </row>
+    <row r="73" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+    </row>
+    <row r="74" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+    </row>
+    <row r="75" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+    </row>
+    <row r="76" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+    </row>
+    <row r="77" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+    </row>
+    <row r="78" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+    </row>
+    <row r="79" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+    </row>
+    <row r="80" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+    </row>
+    <row r="81" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="27" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
+    <row r="85" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="31" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+    <row r="86" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="31" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+    <row r="88" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+    <row r="89" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="31" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="27" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="31" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4776,7 +4840,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A72" r:id="rId1" location="Alligator_Shoes" xr:uid="{857E2DE7-8287-4040-995C-D2BFBB49E5B0}"/>
+    <hyperlink ref="A73" r:id="rId1" location="Alligator_Shoes" xr:uid="{857E2DE7-8287-4040-995C-D2BFBB49E5B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Planning/Menus.xlsx
+++ b/Planning/Menus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Repos\ZeldasAdventureRemastered\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66802FAA-A135-416B-AFB1-BFBC04D0B43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AC2B0C-4FD1-4EDF-BEA9-DA316F1374BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="316">
   <si>
     <t>"Settings"</t>
   </si>
@@ -671,9 +671,6 @@
     <t>Unused Treasures</t>
   </si>
   <si>
-    <t>Unused Weapons</t>
-  </si>
-  <si>
     <t>Wand</t>
   </si>
   <si>
@@ -2036,6 +2033,12 @@
   </si>
   <si>
     <t>Spells</t>
+  </si>
+  <si>
+    <t>Unused Spells</t>
+  </si>
+  <si>
+    <t>Plain Of Andor</t>
   </si>
 </sst>
 </file>
@@ -3379,7 +3382,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>94</v>
@@ -3448,16 +3451,16 @@
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>_xlfn.CONCAT(A13," ",B13," ",D13,";")</f>
@@ -3601,7 +3604,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>91</v>
@@ -3693,7 +3696,7 @@
         <v>93</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3705,7 +3708,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>94</v>
@@ -4008,10 +4011,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E57697-7125-431C-8E9A-2A46B6506042}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4024,623 +4027,638 @@
     <col min="6" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>151</v>
       </c>
       <c r="B1" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="B3" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="39"/>
+    </row>
+    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="39"/>
+    </row>
+    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="39"/>
+    </row>
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="39"/>
+    </row>
+    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="C2" s="32" t="s">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="32" t="s">
+      <c r="D22" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="1:10" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="38"/>
-    </row>
-    <row r="5" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="38"/>
-    </row>
-    <row r="6" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D6" s="38"/>
-    </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="38"/>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="38"/>
-    </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="39"/>
-    </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="D13" s="39"/>
-    </row>
-    <row r="14" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="39"/>
-    </row>
-    <row r="15" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16" s="39"/>
-    </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="C27" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="C22" s="32" t="s">
+    </row>
+    <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="D23" s="32" t="s">
+      <c r="D31" s="32" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
         <v>304</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>306</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>205</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>305</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
     </row>
-    <row r="41" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
-    </row>
-    <row r="42" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
-    </row>
-    <row r="43" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="34"/>
+        <v>154</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>315</v>
+      </c>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
-    </row>
-    <row r="45" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="28"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
-    </row>
-    <row r="46" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="28"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-    </row>
-    <row r="47" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="E46" s="28"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-    </row>
-    <row r="48" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="E47" s="28"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+        <v>167</v>
+      </c>
+      <c r="E48" s="28"/>
     </row>
     <row r="49" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4648,69 +4666,69 @@
         <v>152</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
     </row>
     <row r="65" spans="1:4" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C65" s="32"/>
       <c r="D65" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C66" s="32"/>
       <c r="D66" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C67" s="32"/>
       <c r="D67" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C68" s="32"/>
       <c r="D68" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A69" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C69" s="32"/>
       <c r="D69" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -4723,7 +4741,7 @@
     </row>
     <row r="72" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
@@ -4731,7 +4749,7 @@
     </row>
     <row r="73" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
@@ -4739,7 +4757,7 @@
     </row>
     <row r="74" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
@@ -4747,7 +4765,7 @@
     </row>
     <row r="75" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
@@ -4755,7 +4773,7 @@
     </row>
     <row r="76" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B76" s="32"/>
       <c r="C76" s="32"/>
@@ -4763,7 +4781,7 @@
     </row>
     <row r="77" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B77" s="32"/>
       <c r="C77" s="32"/>
@@ -4771,7 +4789,7 @@
     </row>
     <row r="78" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B78" s="32"/>
       <c r="C78" s="32"/>
@@ -4779,7 +4797,7 @@
     </row>
     <row r="79" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
@@ -4787,7 +4805,7 @@
     </row>
     <row r="80" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
@@ -4795,42 +4813,42 @@
     </row>
     <row r="81" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="27" t="s">
-        <v>154</v>
+        <v>314</v>
       </c>
     </row>
     <row r="85" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/Menus.xlsx
+++ b/Planning/Menus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Repos\ZeldasAdventureRemastered\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AC2B0C-4FD1-4EDF-BEA9-DA316F1374BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B8B955-BBF2-4F66-A30B-A802E1F0BB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
+    <workbookView xWindow="34500" yWindow="2700" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="319">
   <si>
     <t>"Settings"</t>
   </si>
@@ -770,9 +770,6 @@
     <t>Jade Ring</t>
   </si>
   <si>
-    <t>Shield</t>
-  </si>
-  <si>
     <t>Dagger</t>
   </si>
   <si>
@@ -1020,8 +1017,11 @@
     <t>In a cave east of the White Steed Lodge, within the Forest of Torian. Its entrance is surrounded by stones and is near the river. The Crystal Heart is hidden in a tree trunk maze inside the cave.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Forest of Ogham - Merchant </t>
+    <t>On Mystery Island, accessible through a two Rupee boat tour offered by Faust the Boatman in Vendoss. Water spouts block the way to the Heart, which disappear upon collecting the Calm spell.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mystery Island </t>
     </r>
     <r>
       <rPr>
@@ -1032,17 +1032,48 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(02)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Great Wimbich - Market Square </t>
+      <t>(Overworld_494)</t>
+    </r>
+  </si>
+  <si>
+    <t>In a cave north of South Port. It is located on the opposite side of a ravine, and requires Zelda to make a bridge appear by using a spread-fire spell to hit a crystal switch near the heart.</t>
+  </si>
+  <si>
+    <t>South Port - Ravine Cave</t>
+  </si>
+  <si>
+    <t>Southeast of the Shrine of Fire entrance, on the opposite side of the river/lake near the Canvula village. It's hidden behind a tree.</t>
+  </si>
+  <si>
+    <t>Forest of Torian - Tree Trunk Cave</t>
+  </si>
+  <si>
+    <t>Shrine of Earth</t>
+  </si>
+  <si>
+    <t>Shrine of Illusion</t>
+  </si>
+  <si>
+    <t>Shrine of Air</t>
+  </si>
+  <si>
+    <t>Shrine of Destiny</t>
+  </si>
+  <si>
+    <t>Shrine of Water</t>
+  </si>
+  <si>
+    <t>Shrine of Strength</t>
+  </si>
+  <si>
+    <t>Shrine of Fire</t>
+  </si>
+  <si>
+    <t>Shrine of Earth, Shrine of Illusion, Shrine of Air, Shrine of Destiny, Shrine of Water, Shrine of Strength, Shrine of Fire</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Forest of Canvula </t>
     </r>
     <r>
       <rPr>
@@ -1053,25 +1084,54 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(03)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Great Wimbich - Blacksmith, Seacoast Plain - Merchant</t>
-    </r>
-  </si>
-  <si>
-    <t>On Mystery Island, accessible through a two Rupee boat tour offered by Faust the Boatman in Vendoss. Water spouts block the way to the Heart, which disappear upon collecting the Calm spell.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mystery Island </t>
+      <t>(Overworld_126)</t>
+    </r>
+  </si>
+  <si>
+    <t>Empty Pitcher</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It can be turned into a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diamond</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by giving it to the Great Wimbich Blacksmith.</t>
+    </r>
+  </si>
+  <si>
+    <t>Full Pitcher</t>
+  </si>
+  <si>
+    <t>Plain of Andor - River Source</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Appears after defeating every Keese in the room south of the crossroads area</t>
     </r>
     <r>
       <rPr>
@@ -1082,48 +1142,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Overworld_494)</t>
-    </r>
-  </si>
-  <si>
-    <t>In a cave north of South Port. It is located on the opposite side of a ravine, and requires Zelda to make a bridge appear by using a spread-fire spell to hit a crystal switch near the heart.</t>
-  </si>
-  <si>
-    <t>South Port - Ravine Cave</t>
-  </si>
-  <si>
-    <t>Southeast of the Shrine of Fire entrance, on the opposite side of the river/lake near the Canvula village. It's hidden behind a tree.</t>
-  </si>
-  <si>
-    <t>Forest of Torian - Tree Trunk Cave</t>
-  </si>
-  <si>
-    <t>Shrine of Earth</t>
-  </si>
-  <si>
-    <t>Shrine of Illusion</t>
-  </si>
-  <si>
-    <t>Shrine of Air</t>
-  </si>
-  <si>
-    <t>Shrine of Destiny</t>
-  </si>
-  <si>
-    <t>Shrine of Water</t>
-  </si>
-  <si>
-    <t>Shrine of Strength</t>
-  </si>
-  <si>
-    <t>Shrine of Fire</t>
-  </si>
-  <si>
-    <t>Shrine of Earth, Shrine of Illusion, Shrine of Air, Shrine of Destiny, Shrine of Water, Shrine of Strength, Shrine of Fire</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Forest of Canvula </t>
+      <t xml:space="preserve"> (Shrine_Earth_05).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Obtained by using the Empty Pitcher at the Andor River's source </t>
     </r>
     <r>
       <rPr>
@@ -1134,15 +1158,75 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Overworld_126)</t>
-    </r>
-  </si>
-  <si>
-    <t>Empty Pitcher</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It can be turned into a </t>
+      <t>(PlainOfAndor_01)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Plain of Andor - Glebb the Thirsty</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Glebb the Thirsty will give Zelda the empty pitcher when she enters the area Glebb is in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(PlainOfAndor_20)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Function/Usage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Using the Empty Pitcher at the river's source </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(PlainOfAndor_01)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will fill it with water / give Zelda the </t>
     </r>
     <r>
       <rPr>
@@ -1153,6 +1237,635 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Full Pitcher</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Obtained by talking to Yvonne the musician </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(GreatWimbich_04)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Flute can be used to defeat a snake southwest of Great Wimbich </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(GreatWimbich_05)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which drops the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pyros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> spell upon death.</t>
+    </r>
+  </si>
+  <si>
+    <t>Great Wimbich - Yvonne</t>
+  </si>
+  <si>
+    <t>Underworld Map 1</t>
+  </si>
+  <si>
+    <t>Underworld Map 2</t>
+  </si>
+  <si>
+    <t>Underworld Map 3</t>
+  </si>
+  <si>
+    <t>Underworld Map 4</t>
+  </si>
+  <si>
+    <t>Underworld Map 5</t>
+  </si>
+  <si>
+    <t>Underworld Map 6</t>
+  </si>
+  <si>
+    <t>Underworld Map 7</t>
+  </si>
+  <si>
+    <t>An Underworld Map will allow you to see the full layout of a Shrine.</t>
+  </si>
+  <si>
+    <t>A compass will make the Celestial Sign room of the Shrine appear blue on the map. When used outside of the Shrine it belongs to, it teleports Zelda to the entrance of that Shrine.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Appears after defeating the lone Vire in the mirror and red curtains room </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Shrine_Illusion_06)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Appears after defeating all of the Tektites in the crossroads area </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Shrine_Earth_04)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Found in the room after the North Kelpie fight </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Shrine_Water_14)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Appears after defeating every Tornado in the entrance area </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Shrine_Air_02)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This map can't be found inside the Shrine itself. Instead, it's in Vendoss, given to Zelda by Yelena, Link's former guide </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Vendoss_02)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Appears after defeating the Zols in the second spike wall area. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Shrine_Water_03)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Rubies</t>
+  </si>
+  <si>
+    <t>Appears after pushing the left block to the right in the block puzzle east of the entrance area.</t>
+  </si>
+  <si>
+    <t>Appears after defeating the Crockarocks in the area after the second Blacksmith screen.</t>
+  </si>
+  <si>
+    <t>There are two types in the entire game; blue Rupees (5) and yellow Rupees (10). Rupees can be used to buy items, but only when Zelda has selected them in her inventory like an item. They are also required to power spells. Zelda can hold up to 999 Rupees.</t>
+  </si>
+  <si>
+    <t>Everywhere</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After giving Glebb The Thirsty the Full Pitcher, she'll give Zelda the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vial of Wind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>The Knife is used to cut open a hole in the wall in the very same room. It needs to be used every time Zelda enters the dead-end room, as the hole she creates will seal up after leaving.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can be placed in a receptacle in the colorful room to the east </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ShrineOfIllusion_14)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to open up a blocked passageway.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It's obtained after Zelda clears the geometric tile Patra room </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ShrineOfIllusion_13)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By giving the chunk of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Coal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the Great Wimbich Blacksmith.</t>
+    </r>
+  </si>
+  <si>
+    <t>This chunk of Coal is given to Zelda by the Quarry Owner for free.</t>
+  </si>
+  <si>
+    <t>By giving Glebb The Thirsty the Full Pitcher.</t>
+  </si>
+  <si>
+    <t>The Vial of Wind can be used with the South Port raft to access Sea Island and the Shrine of Water.</t>
+  </si>
+  <si>
+    <t>Shortcut cave between Forest Of Findo and Seacoast Plain</t>
+  </si>
+  <si>
+    <t>Playing the Harp in a Shrine will warp Zelda to its first room, allowing for a quick escape.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Appears after defeating both Goriyas in the tent dead-end room </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Shrine_Illusion_15)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Is found on the floor of the cave.</t>
+  </si>
+  <si>
+    <t>Shrine of Strength - First Ticket Booth</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Needs to be bought </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Price: 100 Rubies)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Needs to be bought </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Price: 20 Rubies)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Needs to be bought </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Price: 10 Rubies)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ticket 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Field of the Broadsword)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ticket 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Jousting Field)</t>
+    </r>
+  </si>
+  <si>
+    <t>Shrine of Strength - Second Ticket Booth</t>
+  </si>
+  <si>
+    <t>Allows Zelda to enter the Jousting Field and fight the Red Knight.</t>
+  </si>
+  <si>
+    <t>Allows Zelda to visit the Field of the Broadsword and attack the Blue and Green Knights.</t>
+  </si>
+  <si>
+    <t>Life Potion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apart from defeating enemies, Zelda can acquire a lot of Rupees on four separate occasions: Defeating Llort in the Shrine of Earth </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Shrine_Earth_21 - 250 Rubies)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, talking to Lonlyn in Verna </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Verna_02 - 25 Rupees),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hitting the bears in the Shrine of Strength archery minigame </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(25, 50, and 100 Rupees in that order) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and picking up the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Diamond</t>
     </r>
     <r>
@@ -1163,25 +1876,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> by giving it to the Great Wimbich Blacksmith.</t>
-    </r>
-  </si>
-  <si>
-    <t>Full Pitcher</t>
-  </si>
-  <si>
-    <t>Plain of Andor - River Source</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Appears after defeating every Keese in the room south of the crossroads area</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1192,12 +1887,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Shrine_Earth_05).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Candles will lighten any dark room when used, and are a single-use item. Sellers will restock them once Zelda uses hers. Used in: The last part of the cave maze in the Shrine of Earth </t>
+      <t xml:space="preserve">(999 Rupees) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The archery minigame can be reset by exiting and entering the Shrine, allowing for infinite Rupees.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Picking it up will completely fill Zelda's wallet with Rupees. It is also required to activate the Food Dude easter egg by holding the use button for about 6.5 seconds in the Forest of Canvula </t>
     </r>
     <r>
       <rPr>
@@ -1208,17 +1913,55 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Shrine_Earth_17)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &amp; The Stalfos maze after the Pasquinade taunt room in the Shrine of Illusion </t>
+      <t>(ForestOfCanvula_22)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>"Overworld"</t>
+  </si>
+  <si>
+    <t>{MainMenuPage, SettingsPage, GraphicsPage, AudioPage, GameplayPage, ControlsPage}</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>Save Specific</t>
+  </si>
+  <si>
+    <t>DesiredRubies</t>
+  </si>
+  <si>
+    <t>CurrentRubies</t>
+  </si>
+  <si>
+    <t>Spells</t>
+  </si>
+  <si>
+    <t>Unused Spells</t>
+  </si>
+  <si>
+    <t>Plain Of Andor</t>
+  </si>
+  <si>
+    <t>Magic Shield</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Needs to be bought </t>
     </r>
     <r>
       <rPr>
@@ -1229,12 +1972,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Shrine_Illusion_18).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Obtained by using the Empty Pitcher at the Andor River's source </t>
+      <t>(Price: 200 Rubies)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Needs to be bought </t>
     </r>
     <r>
       <rPr>
@@ -1245,7 +1998,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(PlainOfAndor_01)</t>
+      <t>(Price: 500 Rubies)</t>
     </r>
     <r>
       <rPr>
@@ -1259,11 +2012,8 @@
     </r>
   </si>
   <si>
-    <t>Plain of Andor - Glebb the Thirsty</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Glebb the Thirsty will give Zelda the empty pitcher when she enters the area Glebb is in </t>
+    <r>
+      <t xml:space="preserve">Needs to be bought </t>
     </r>
     <r>
       <rPr>
@@ -1274,7 +2024,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(PlainOfAndor_20)</t>
+      <t>(Price: 50 Rubies)</t>
     </r>
     <r>
       <rPr>
@@ -1288,33 +2038,6 @@
     </r>
   </si>
   <si>
-    <t>Function/Usage</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Using the Empty Pitcher at the river's source </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(PlainOfAndor_01)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will fill it with water / give Zelda the </t>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -1324,721 +2047,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Full Pitcher</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Obtained by talking to Yvonne the musician </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(GreatWimbich_04)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The Flute can be used to defeat a snake southwest of Great Wimbich </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(GreatWimbich_05)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, which drops the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pyros</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> spell upon death.</t>
-    </r>
-  </si>
-  <si>
-    <t>Great Wimbich - Yvonne</t>
-  </si>
-  <si>
-    <t>Underworld Map 1</t>
-  </si>
-  <si>
-    <t>Underworld Map 2</t>
-  </si>
-  <si>
-    <t>Underworld Map 3</t>
-  </si>
-  <si>
-    <t>Underworld Map 4</t>
-  </si>
-  <si>
-    <t>Underworld Map 5</t>
-  </si>
-  <si>
-    <t>Underworld Map 6</t>
-  </si>
-  <si>
-    <t>Underworld Map 7</t>
-  </si>
-  <si>
-    <t>An Underworld Map will allow you to see the full layout of a Shrine.</t>
-  </si>
-  <si>
-    <t>A compass will make the Celestial Sign room of the Shrine appear blue on the map. When used outside of the Shrine it belongs to, it teleports Zelda to the entrance of that Shrine.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Appears after defeating the lone Vire in the mirror and red curtains room </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Shrine_Illusion_06)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Appears after defeating all of the Tektites in the crossroads area </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Shrine_Earth_04)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Found in the room after the North Kelpie fight </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Shrine_Water_14)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Appears after defeating every Tornado in the entrance area </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Shrine_Air_02)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This map can't be found inside the Shrine itself. Instead, it's in Vendoss, given to Zelda by Yelena, Link's former guide </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Vendoss_02)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Appears after defeating the Zols in the second spike wall area. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Shrine_Water_03)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Rubies</t>
-  </si>
-  <si>
-    <t>Appears after pushing the left block to the right in the block puzzle east of the entrance area.</t>
-  </si>
-  <si>
-    <t>Appears after defeating the Crockarocks in the area after the second Blacksmith screen.</t>
-  </si>
-  <si>
-    <t>There are two types in the entire game; blue Rupees (5) and yellow Rupees (10). Rupees can be used to buy items, but only when Zelda has selected them in her inventory like an item. They are also required to power spells. Zelda can hold up to 999 Rupees.</t>
-  </si>
-  <si>
-    <t>Everywhere</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After giving Glebb The Thirsty the Full Pitcher, she'll give Zelda the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vial of Wind</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>The Knife is used to cut open a hole in the wall in the very same room. It needs to be used every time Zelda enters the dead-end room, as the hole she creates will seal up after leaving.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Can be placed in a receptacle in the colorful room to the east </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ShrineOfIllusion_14)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to open up a blocked passageway.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It's obtained after Zelda clears the geometric tile Patra room </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ShrineOfIllusion_13)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">By giving the chunk of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Coal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to the Great Wimbich Blacksmith.</t>
-    </r>
-  </si>
-  <si>
-    <t>This chunk of Coal is given to Zelda by the Quarry Owner for free.</t>
-  </si>
-  <si>
-    <t>By giving Glebb The Thirsty the Full Pitcher.</t>
-  </si>
-  <si>
-    <t>The Vial of Wind can be used with the South Port raft to access Sea Island and the Shrine of Water.</t>
-  </si>
-  <si>
-    <t>Shortcut cave between Forest Of Findo and Seacoast Plain</t>
-  </si>
-  <si>
-    <t>Playing the Harp in a Shrine will warp Zelda to its first room, allowing for a quick escape.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Appears after defeating both Goriyas in the tent dead-end room </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Shrine_Illusion_15)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Is found on the floor of the cave.</t>
-  </si>
-  <si>
-    <t>Shrine of Strength - First Ticket Booth</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Needs to be bought </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Price: 100 Rubies)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Needs to be bought </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Price: 20 Rubies)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Needs to be bought </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Price: 10 Rubies)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ticket 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Field of the Broadsword)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ticket 1 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Jousting Field)</t>
-    </r>
-  </si>
-  <si>
-    <t>Shrine of Strength - Second Ticket Booth</t>
-  </si>
-  <si>
-    <t>Allows Zelda to enter the Jousting Field and fight the Red Knight.</t>
-  </si>
-  <si>
-    <t>Allows Zelda to visit the Field of the Broadsword and attack the Blue and Green Knights.</t>
-  </si>
-  <si>
-    <t>Life Potion</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Apart from defeating enemies, Zelda can acquire a lot of Rupees on four separate occasions: Defeating Llort in the Shrine of Earth </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Shrine_Earth_21 - 250 Rubies)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, talking to Lonlyn in Verna </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Verna_02 - 25 Rupees),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hitting the bears in the Shrine of Strength archery minigame </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(25, 50, and 100 Rupees in that order) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and picking up the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Diamond</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(999 Rupees) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The archery minigame can be reset by exiting and entering the Shrine, allowing for infinite Rupees.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Picking it up will completely fill Zelda's wallet with Rupees. It is also required to activate the Food Dude easter egg by holding the use button for about 6.5 seconds in the Forest of Canvula </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ForestOfCanvula_22)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>"Overworld"</t>
-  </si>
-  <si>
-    <t>{MainMenuPage, SettingsPage, GraphicsPage, AudioPage, GameplayPage, ControlsPage}</t>
-  </si>
-  <si>
-    <t>enum</t>
-  </si>
-  <si>
-    <t>Save Specific</t>
-  </si>
-  <si>
-    <t>DesiredRubies</t>
-  </si>
-  <si>
-    <t>CurrentRubies</t>
-  </si>
-  <si>
-    <t>Spells</t>
-  </si>
-  <si>
-    <t>Unused Spells</t>
-  </si>
-  <si>
-    <t>Plain Of Andor</t>
+      <t>2x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Key</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2135,7 +2155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2190,6 +2210,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2219,7 +2245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2336,6 +2362,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3382,7 +3426,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>94</v>
@@ -3451,16 +3495,16 @@
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>_xlfn.CONCAT(A13," ",B13," ",D13,";")</f>
@@ -3604,7 +3648,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>91</v>
@@ -3696,7 +3740,7 @@
         <v>93</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3708,7 +3752,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>94</v>
@@ -4011,854 +4055,1065 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E57697-7125-431C-8E9A-2A46B6506042}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="32" customWidth="1"/>
-    <col min="4" max="4" width="92.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="30"/>
-    <col min="6" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="8.85546875" style="28"/>
+    <col min="2" max="2" width="40.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="30"/>
+    <col min="7" max="16384" width="8.85546875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>0</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>1</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>2</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>2</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C5" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
+        <v>3</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>4</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="K7" s="31"/>
+    </row>
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>5</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="K8" s="31"/>
+    </row>
+    <row r="9" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>6</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>7</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>8</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>9</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>10</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="28">
+        <v>11</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="K14" s="31"/>
+    </row>
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>12</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="K15" s="31"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>13</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>14</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>15</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>16</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>17</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>18</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="41"/>
+    </row>
+    <row r="22" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>19</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="28">
+        <v>20</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="28">
+        <v>21</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>22</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="28">
+        <v>23</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="28">
+        <v>24</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>26</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>27</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="E30" s="33"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>28</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="44"/>
+      <c r="D31" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="28"/>
+    </row>
+    <row r="32" spans="1:11" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="28">
+        <v>29</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="K32" s="31"/>
+    </row>
+    <row r="33" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
+        <v>30</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
+        <v>31</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <v>32</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="44"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+    </row>
+    <row r="36" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>33</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="28">
+        <v>34</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="28">
+        <v>35</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="44"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+    </row>
+    <row r="39" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="28">
+        <v>36</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="28">
+        <v>37</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
+        <v>38</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="K41" s="31"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="31"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="28"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" s="28"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="28"/>
+    </row>
+    <row r="66" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B66" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="F66" s="28"/>
+    </row>
+    <row r="67" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B67" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C67" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>253</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" s="38"/>
-    </row>
-    <row r="5" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="38"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="38"/>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="B8" s="32" t="s">
+      <c r="E67" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F67" s="28"/>
+    </row>
+    <row r="68" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="28"/>
+    </row>
+    <row r="69" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="F69" s="28"/>
+    </row>
+    <row r="70" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B70" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C70" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>264</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="39"/>
-    </row>
-    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="39"/>
-    </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="D16" s="39"/>
-    </row>
-    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>301</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="J24" s="31"/>
-    </row>
-    <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" s="33" t="s">
+      <c r="E70" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="F70" s="28"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73" s="28"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" s="28"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="B28" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>304</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="28"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="28"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="E43" s="28"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="28"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="28"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="E48" s="28"/>
-    </row>
-    <row r="49" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="31" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="31" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-    </row>
-    <row r="65" spans="1:4" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="28" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>248</v>
-      </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="28" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-    </row>
-    <row r="72" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-    </row>
-    <row r="73" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-    </row>
-    <row r="74" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="31" t="s">
+      <c r="F75" s="28"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-    </row>
-    <row r="75" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="31" t="s">
+      <c r="F76" s="28"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-    </row>
-    <row r="76" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="31" t="s">
+      <c r="F77" s="28"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-    </row>
-    <row r="77" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
+      <c r="F78" s="28"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-    </row>
-    <row r="78" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+      <c r="F79" s="28"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B78" s="32"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-    </row>
-    <row r="79" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
+      <c r="F80" s="28"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-    </row>
-    <row r="80" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="31" t="s">
+      <c r="F81" s="28"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-    </row>
-    <row r="81" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31" t="s">
+      <c r="F82" s="28"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="31" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="28"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="31" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="31" t="s">
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="31" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="31" t="s">
+      <c r="C87" s="28"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="28"/>
+      <c r="F87" s="28"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="31" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
+      <c r="C88" s="28"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="28"/>
+      <c r="F88" s="28"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="31" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
+      <c r="C89" s="28"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="28"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="31" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="31" t="s">
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="31" t="s">
         <v>169</v>
       </c>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="D10:D16"/>
+    <mergeCell ref="E5:E11"/>
+    <mergeCell ref="E18:E24"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A73" r:id="rId1" location="Alligator_Shoes" xr:uid="{857E2DE7-8287-4040-995C-D2BFBB49E5B0}"/>
+    <hyperlink ref="B75" r:id="rId1" location="Alligator_Shoes" xr:uid="{857E2DE7-8287-4040-995C-D2BFBB49E5B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Planning/Menus.xlsx
+++ b/Planning/Menus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Repos\ZeldasAdventureRemastered\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B8B955-BBF2-4F66-A30B-A802E1F0BB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88343C9-A268-4FDB-B663-0B196F395E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34500" yWindow="2700" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
+    <workbookView xWindow="34275" yWindow="4245" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="1" r:id="rId1"/>
@@ -680,9 +680,6 @@
     <t>Hourglass</t>
   </si>
   <si>
-    <t>Bow</t>
-  </si>
-  <si>
     <t>Leather Book</t>
   </si>
   <si>
@@ -2059,6 +2056,9 @@
       </rPr>
       <t xml:space="preserve"> Key</t>
     </r>
+  </si>
+  <si>
+    <t>Bow and Arrow</t>
   </si>
 </sst>
 </file>
@@ -2364,12 +2364,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2380,6 +2374,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3426,7 +3426,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>94</v>
@@ -3495,16 +3495,16 @@
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>_xlfn.CONCAT(A13," ",B13," ",D13,";")</f>
@@ -3648,7 +3648,7 @@
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>91</v>
@@ -3740,7 +3740,7 @@
         <v>93</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3752,7 +3752,7 @@
         <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>94</v>
@@ -4057,8 +4057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E57697-7125-431C-8E9A-2A46B6506042}">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4073,20 +4073,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>151</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4094,16 +4094,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="38" t="s">
         <v>215</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -4111,16 +4111,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K3" s="31"/>
     </row>
@@ -4129,11 +4129,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="45"/>
+        <v>158</v>
+      </c>
+      <c r="C4" s="43"/>
       <c r="D4" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E4" s="38"/>
       <c r="K4" s="31"/>
@@ -4143,16 +4143,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>268</v>
+        <v>250</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -4160,46 +4160,46 @@
         <v>3</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="E6" s="44"/>
+    </row>
+    <row r="7" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>4</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" s="40"/>
+        <v>225</v>
+      </c>
+      <c r="E7" s="44"/>
       <c r="K7" s="31"/>
     </row>
-    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="40"/>
+        <v>226</v>
+      </c>
+      <c r="E8" s="44"/>
       <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -4207,15 +4207,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="E9" s="40"/>
+        <v>270</v>
+      </c>
+      <c r="E9" s="44"/>
       <c r="K9" s="31"/>
     </row>
     <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -4223,15 +4223,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="40"/>
+        <v>227</v>
+      </c>
+      <c r="E10" s="44"/>
       <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -4239,15 +4239,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>229</v>
-      </c>
-      <c r="E11" s="40"/>
+        <v>228</v>
+      </c>
+      <c r="E11" s="44"/>
       <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -4255,16 +4255,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -4272,16 +4272,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D13" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="38" t="s">
         <v>257</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>258</v>
       </c>
       <c r="K13" s="31"/>
     </row>
@@ -4290,16 +4290,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K14" s="31"/>
     </row>
@@ -4308,16 +4308,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>288</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>289</v>
       </c>
       <c r="K15" s="31"/>
     </row>
@@ -4326,16 +4326,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K16" s="31"/>
     </row>
@@ -4344,45 +4344,45 @@
         <v>14</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="C17" s="44"/>
+        <v>300</v>
+      </c>
+      <c r="C17" s="42"/>
       <c r="D17" s="38" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>15</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>266</v>
       </c>
       <c r="K18" s="31"/>
     </row>
-    <row r="19" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>16</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="E19" s="41"/>
+        <v>268</v>
+      </c>
+      <c r="E19" s="45"/>
       <c r="K19" s="31"/>
     </row>
     <row r="20" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
@@ -4390,84 +4390,84 @@
         <v>17</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="E20" s="41"/>
-    </row>
-    <row r="21" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="E20" s="45"/>
+    </row>
+    <row r="21" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>18</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="E21" s="41"/>
-    </row>
-    <row r="22" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>19</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>274</v>
-      </c>
-      <c r="E22" s="41"/>
-    </row>
-    <row r="23" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="28">
         <v>20</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="E23" s="45"/>
+    </row>
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>21</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>277</v>
-      </c>
-      <c r="E24" s="41"/>
+        <v>276</v>
+      </c>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>22</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C25" s="44"/>
+        <v>184</v>
+      </c>
+      <c r="C25" s="42"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
     </row>
@@ -4476,11 +4476,11 @@
         <v>23</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="C26" s="44"/>
+        <v>312</v>
+      </c>
+      <c r="C26" s="42"/>
       <c r="D26" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E26" s="33"/>
     </row>
@@ -4489,16 +4489,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -4506,9 +4506,9 @@
         <v>25</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C28" s="44"/>
+        <v>189</v>
+      </c>
+      <c r="C28" s="42"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
     </row>
@@ -4517,9 +4517,9 @@
         <v>26</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="44"/>
+        <v>191</v>
+      </c>
+      <c r="C29" s="42"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
     </row>
@@ -4528,11 +4528,11 @@
         <v>27</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="44"/>
+        <v>193</v>
+      </c>
+      <c r="C30" s="42"/>
       <c r="D30" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E30" s="33"/>
     </row>
@@ -4541,11 +4541,11 @@
         <v>28</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="C31" s="44"/>
+        <v>213</v>
+      </c>
+      <c r="C31" s="42"/>
       <c r="D31" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E31" s="33"/>
       <c r="F31" s="28"/>
@@ -4555,16 +4555,16 @@
         <v>29</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K32" s="31"/>
     </row>
@@ -4573,16 +4573,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D33" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="33" t="s">
         <v>286</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4590,9 +4590,9 @@
         <v>31</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C34" s="44"/>
+        <v>198</v>
+      </c>
+      <c r="C34" s="42"/>
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
     </row>
@@ -4601,9 +4601,9 @@
         <v>32</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C35" s="44"/>
+        <v>199</v>
+      </c>
+      <c r="C35" s="42"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
     </row>
@@ -4612,16 +4612,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -4629,16 +4629,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -4646,9 +4646,9 @@
         <v>35</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C38" s="44"/>
+        <v>201</v>
+      </c>
+      <c r="C38" s="42"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
     </row>
@@ -4657,16 +4657,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -4674,16 +4674,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C40" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="D40" s="38" t="s">
-        <v>254</v>
-      </c>
       <c r="E40" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
@@ -4691,16 +4691,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="C41" s="38" t="s">
-        <v>250</v>
-      </c>
       <c r="D41" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K41" s="31"/>
     </row>
@@ -4713,16 +4713,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F44" s="28"/>
     </row>
@@ -4731,7 +4731,7 @@
         <v>154</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D45" s="34"/>
       <c r="E45" s="34"/>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" s="31" t="s">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -4748,25 +4748,25 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F47" s="28"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F48" s="28"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F49" s="28"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C52" s="28"/>
       <c r="D52" s="28"/>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="28"/>
@@ -4811,7 +4811,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C56" s="28"/>
       <c r="D56" s="28"/>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
@@ -4856,7 +4856,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C60" s="28"/>
       <c r="D60" s="28"/>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C62" s="28"/>
       <c r="D62" s="28"/>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
@@ -4895,7 +4895,7 @@
         <v>152</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D65" s="29"/>
       <c r="E65" s="29"/>
@@ -4903,70 +4903,70 @@
     </row>
     <row r="66" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B66" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66" s="32" t="s">
         <v>230</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>231</v>
       </c>
       <c r="F66" s="28"/>
     </row>
     <row r="67" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B67" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F67" s="28"/>
     </row>
     <row r="68" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B68" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F68" s="28"/>
     </row>
     <row r="69" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F69" s="28"/>
     </row>
     <row r="70" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B70" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F70" s="28"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -4988,55 +4988,55 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F75" s="28"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F76" s="28"/>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F77" s="28"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F78" s="28"/>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F79" s="28"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F80" s="28"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F81" s="28"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F82" s="28"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C83" s="28"/>
       <c r="D83" s="28"/>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C84" s="28"/>
       <c r="D84" s="28"/>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C86" s="28"/>
       <c r="D86" s="28"/>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C88" s="28"/>
       <c r="D88" s="28"/>
@@ -5081,7 +5081,7 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C89" s="28"/>
       <c r="D89" s="28"/>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C90" s="28"/>
       <c r="D90" s="28"/>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C91" s="28"/>
       <c r="D91" s="28"/>

--- a/Planning/Menus.xlsx
+++ b/Planning/Menus.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Repos\ZeldasAdventureRemastered\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88343C9-A268-4FDB-B663-0B196F395E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C86827F-F033-470E-9FF8-09C070C1ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34275" yWindow="4245" windowWidth="7500" windowHeight="6000" activeTab="3" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
+    <workbookView minimized="1" xWindow="46770" yWindow="5100" windowWidth="28800" windowHeight="15435" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="1" r:id="rId1"/>
-    <sheet name="Variables" sheetId="2" r:id="rId2"/>
+    <sheet name="Variables &amp; Scripts" sheetId="2" r:id="rId2"/>
     <sheet name="OffsetCalculator" sheetId="3" r:id="rId3"/>
     <sheet name="Items" sheetId="5" r:id="rId4"/>
   </sheets>
@@ -23,19 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="337">
   <si>
     <t>"Settings"</t>
   </si>
@@ -49,15 +42,9 @@
     <t>"SaveA"</t>
   </si>
   <si>
-    <t>"Graphics"</t>
-  </si>
-  <si>
     <t>"Audio"</t>
   </si>
   <si>
-    <t>"Gameplay"</t>
-  </si>
-  <si>
     <t>"Controls"</t>
   </si>
   <si>
@@ -65,12 +52,6 @@
   </si>
   <si>
     <t>page_transfer</t>
-  </si>
-  <si>
-    <t>SettingsPage</t>
-  </si>
-  <si>
-    <t>GraphicsPage</t>
   </si>
   <si>
     <t>"Exit"</t>
@@ -184,18 +165,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>MainPage</t>
-  </si>
-  <si>
-    <t>SaveGame_Select(0)</t>
-  </si>
-  <si>
-    <t>SaveGame_Select(1)</t>
-  </si>
-  <si>
-    <t>SaveGame_Select(2)</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -211,15 +180,6 @@
     <t>QuitGame()</t>
   </si>
   <si>
-    <t>arg0 - Possible</t>
-  </si>
-  <si>
-    <t>AudioPage</t>
-  </si>
-  <si>
-    <t>"Ambience"</t>
-  </si>
-  <si>
     <t>"Music"</t>
   </si>
   <si>
@@ -245,27 +205,6 @@
   </si>
   <si>
     <t>[0,1]</t>
-  </si>
-  <si>
-    <t>arg1 - Current</t>
-  </si>
-  <si>
-    <t>arg1- Possible</t>
-  </si>
-  <si>
-    <t>ChangeVolume(0,arg1)</t>
-  </si>
-  <si>
-    <t>ChangeVolume(1,arg1)</t>
-  </si>
-  <si>
-    <t>ChangeVolume(2,arg1)</t>
-  </si>
-  <si>
-    <t>ChangeVolume(3,arg1)</t>
-  </si>
-  <si>
-    <t>ChangeVolume(4,arg1)</t>
   </si>
   <si>
     <t>["English","Dutch"]</t>
@@ -528,12 +467,6 @@
     <t>MenuPage</t>
   </si>
   <si>
-    <t>ChangePage("SettingsPage","MainMenuPage")</t>
-  </si>
-  <si>
-    <t>ChangePage("GraphicsPage","SettingsPage")</t>
-  </si>
-  <si>
     <t>ChangePage("AudioPage","SettingsPage")</t>
   </si>
   <si>
@@ -546,22 +479,10 @@
     <t>ChangePage("MainPage","SettingsPage")</t>
   </si>
   <si>
-    <t>ChangePage("SettingsPage","GraphicsPage")</t>
-  </si>
-  <si>
-    <t>arg0 - Default</t>
-  </si>
-  <si>
     <t>arg0</t>
   </si>
   <si>
     <t>arg1</t>
-  </si>
-  <si>
-    <t>Current menu page</t>
-  </si>
-  <si>
-    <t>Next menu page</t>
   </si>
   <si>
     <t>if(GetSaveGameName(global.CurrentSaveGame) = "EMPTY" {ChangePage("NameInputPage")}</t>
@@ -2059,6 +1980,132 @@
   </si>
   <si>
     <t>Bow and Arrow</t>
+  </si>
+  <si>
+    <t>"RemasteredMode"</t>
+  </si>
+  <si>
+    <t>["Disabled","Enabled"]</t>
+  </si>
+  <si>
+    <t>RemasteredModeEnabled(arg0)</t>
+  </si>
+  <si>
+    <t>ChangePage(arg0,arg1)</t>
+  </si>
+  <si>
+    <t>SetWindowScale(arg0)</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>"WindowScale"</t>
+  </si>
+  <si>
+    <t>["Keyboard","Gamepad"]</t>
+  </si>
+  <si>
+    <t>"ConfigDevice"</t>
+  </si>
+  <si>
+    <t>SetConfigDevice(arg0)</t>
+  </si>
+  <si>
+    <t>"Left"</t>
+  </si>
+  <si>
+    <t>"Right"</t>
+  </si>
+  <si>
+    <t>"Up"</t>
+  </si>
+  <si>
+    <t>"Down"</t>
+  </si>
+  <si>
+    <t>"Action"</t>
+  </si>
+  <si>
+    <t>"Special"</t>
+  </si>
+  <si>
+    <t>"Inventory"</t>
+  </si>
+  <si>
+    <t>"Menu"</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>ChangePage("SettingsPage","ControlsPage")</t>
+  </si>
+  <si>
+    <t>"Game"</t>
+  </si>
+  <si>
+    <t>arg0 = Next Menu Page, arg1 = Current Menu Page</t>
+  </si>
+  <si>
+    <t>arg0  (Possible)</t>
+  </si>
+  <si>
+    <t>ChangeVolume(0,arg0)</t>
+  </si>
+  <si>
+    <t>ChangeVolume(1,arg0)</t>
+  </si>
+  <si>
+    <t>ChangeVolume(2,arg0)</t>
+  </si>
+  <si>
+    <t>ChangeVolume(3,arg0)</t>
+  </si>
+  <si>
+    <t>vk_left</t>
+  </si>
+  <si>
+    <t>vk_right</t>
+  </si>
+  <si>
+    <t>vk_up</t>
+  </si>
+  <si>
+    <t>vk_down</t>
+  </si>
+  <si>
+    <t>vk_control</t>
+  </si>
+  <si>
+    <t>vk_alt</t>
+  </si>
+  <si>
+    <t>vk_space</t>
+  </si>
+  <si>
+    <t>vk_escape</t>
+  </si>
+  <si>
+    <t>arg0 (Current/Default)</t>
+  </si>
+  <si>
+    <t>arg0 = SaveGameIndex</t>
+  </si>
+  <si>
+    <t>Menu_Page.Main</t>
+  </si>
+  <si>
+    <t>Menu_Page.Settings</t>
+  </si>
+  <si>
+    <t>Menu_Page.Game</t>
+  </si>
+  <si>
+    <t>Menu_Page.Audio</t>
+  </si>
+  <si>
+    <t>Menu_Page.Controls</t>
   </si>
 </sst>
 </file>
@@ -2155,7 +2202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2194,12 +2241,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2213,6 +2254,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7A1E3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2245,15 +2298,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2268,25 +2318,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2295,37 +2330,22 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2334,19 +2354,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2355,31 +2363,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2389,6 +2382,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC7A1E3"/>
+      <color rgb="FFB889DB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2697,521 +2696,1013 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A56A5F7-2FBC-4A35-A9C1-2015521BEBEF}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="63.28515625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="37.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="51" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="31.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.28515625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="I19" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="I20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="I21" s="3"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="I22" s="3"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="I23" s="3"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="I27" s="3"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B28" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="I28" s="3"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="6">
+        <v>1</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="I29" s="3"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="G30" s="6"/>
+      <c r="I30" s="3"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="I32" s="3"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="D33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" s="6">
         <v>0</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="6" t="str">
+        <f>_xlfn.CONCAT("SetInput(",A35,",arg0,global.CurrentConfigDevice)")</f>
+        <v>SetInput("Left",arg0,global.CurrentConfigDevice)</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f t="shared" ref="C36:C42" si="0">_xlfn.CONCAT("SetInput(",A36,",arg0,global.CurrentConfigDevice)")</f>
+        <v>SetInput("Right",arg0,global.CurrentConfigDevice)</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SetInput("Up",arg0,global.CurrentConfigDevice)</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SetInput("Down",arg0,global.CurrentConfigDevice)</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SetInput("Action",arg0,global.CurrentConfigDevice)</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SetInput("Special",arg0,global.CurrentConfigDevice)</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SetInput("Inventory",arg0,global.CurrentConfigDevice)</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SetInput("Menu",arg0,global.CurrentConfigDevice)</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="7">
-        <v>1</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K41" s="8"/>
-      <c r="L41" s="18"/>
-    </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K42" s="8"/>
-      <c r="L42" s="18"/>
-    </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K43" s="8"/>
-      <c r="L43" s="18"/>
-    </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
-      <c r="K44" s="8"/>
-      <c r="L44" s="18"/>
+      <c r="C43" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="6"/>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G106" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3219,8 +3710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C1A0126-85BB-46A8-9E0D-508D2852D6DD}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3236,34 +3727,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="3">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="str">
@@ -3271,21 +3761,21 @@
         <v>global.CurrentSaveGame = 0;</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
@@ -3295,21 +3785,21 @@
         <v>global.FadeSpeed = 8;</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -3319,21 +3809,21 @@
         <v>global.FadeProgress = 2;</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -3342,94 +3832,94 @@
         <f t="shared" si="0"/>
         <v>global.FadeAlpha = 0;</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>26</v>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>global.CameraIsPanning = false;</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>30</v>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>global.CameraPanSpeed = {x: 12, y: 8};</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>33</v>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>global.DefeatedEnemyList = array_create(0);</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>67</v>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3441,16 +3931,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>_xlfn.CONCAT(A10,B10," = ",D10,";")</f>
@@ -3459,16 +3949,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>_xlfn.CONCAT(A11,B11," = ",D11,";")</f>
@@ -3477,16 +3967,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>_xlfn.CONCAT(A12,B12," = ",D12,";")</f>
@@ -3495,18 +3985,18 @@
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>127</v>
+        <v>281</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="E13" s="4" t="str">
+        <v>281</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E13" s="3" t="str">
         <f>_xlfn.CONCAT(A13," ",B13," ",D13,";")</f>
         <v>enum MenuPage {MainMenuPage, SettingsPage, GraphicsPage, AudioPage, GameplayPage, ControlsPage};</v>
       </c>
@@ -3516,45 +4006,43 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" ref="E17:E22" si="1">_xlfn.CONCAT(A17,B17," = ",D17,";")</f>
         <v>global.DebugMode = True;</v>
       </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -3563,18 +4051,16 @@
         <f t="shared" si="1"/>
         <v>global.WindowScale = 3;</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -3583,107 +4069,100 @@
         <f t="shared" si="1"/>
         <v>global.Fullscreen = 0;</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>global.NewSoundtrack = True;</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>117</v>
+        <v>93</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>global.ShowSubtitles = true;</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>global.Language = "en";</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>24</v>
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>global.Name = "EMPTY";</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>94</v>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D26" s="1">
         <v>60</v>
@@ -3693,15 +4172,15 @@
         <v>global.CurrentHealth = 60;</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>94</v>
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D27" s="1">
         <v>60</v>
@@ -3711,17 +4190,17 @@
         <v>global.MaxHealth = 60;</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="3">
+      <c r="C28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="1">
         <v>10</v>
       </c>
       <c r="E28" s="1" t="str">
@@ -3729,33 +4208,33 @@
         <v>global.DamagePerHit = 10;</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>303</v>
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>global.CurrentLocation = "Overworld";</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -3765,36 +4244,36 @@
         <v>global.CurrentRubies = 0;</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E31" s="1" t="str">
         <f>_xlfn.CONCAT(A31,B31," = ",D31,";")</f>
         <v>global.CurrentTile = {x: 6, y: 22};</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3803,16 +4282,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3821,16 +4300,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3839,93 +4318,90 @@
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="4" t="str">
+        <v>98</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="3" t="str">
         <f>_xlfn.CONCAT(A35,B35," = ",D35,";")</f>
         <v>global.CelestialSigns = [[Earth,0],[Illusion,0],[Air,0],[Destiny,0],[Water,0],[Strength,0],[Fire,0]];</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-    </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="str">
+      <c r="A40" s="1" t="str">
         <f t="shared" ref="A40:A45" si="2">_xlfn.CONCAT("[",B25,",",D25,"]")</f>
         <v>[Name,"EMPTY"]</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="str">
+      <c r="A41" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[CurrentHealth,60]</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="str">
+      <c r="A42" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[MaxHealth,60]</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="str">
+      <c r="A43" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[DamagePerHit,10]</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="str">
+      <c r="A44" s="3" t="str">
         <f t="shared" si="2"/>
         <v>[CurrentLocation,"Overworld"]</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="str">
+      <c r="A45" s="1" t="str">
         <f t="shared" si="2"/>
         <v>[CurrentRubies,0]</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="e">
+      <c r="A46" s="1" t="e">
         <f>_xlfn.CONCAT("[",#REF!,",",#REF!,"]")</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="str">
+      <c r="A47" s="1" t="str">
         <f>_xlfn.CONCAT("[",B31,",",D31,"]")</f>
         <v>[CurrentTile,{x: 6, y: 22}]</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="str">
+      <c r="A48" s="1" t="str">
         <f t="shared" ref="A48:A51" si="3">_xlfn.CONCAT("[",B32,",",D32,"]")</f>
         <v>[PlayerSpawn,{x: 192, y: 128}]</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="str">
+      <c r="A49" s="1" t="str">
         <f t="shared" si="3"/>
         <v>[Inventory_Spell,[Spell.Nothing]]</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="str">
+      <c r="A50" s="1" t="str">
         <f t="shared" si="3"/>
         <v>[Inventory_Treasure,[Treasure.Nothing]]</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="str">
+      <c r="A51" s="3" t="str">
         <f t="shared" si="3"/>
         <v>[CelestialSigns,[[Earth,0],[Illusion,0],[Air,0],[Destiny,0],[Water,0],[Strength,0],[Fire,0]]]</v>
       </c>
@@ -3941,110 +4417,110 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="B13" sqref="B13:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" style="8"/>
-    <col min="12" max="12" width="49.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="49.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>86</v>
+    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="6">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>31</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="14">
         <v>2570</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="14">
         <v>7514</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f>SUM(D2-B2*$B$4)</f>
         <v>266</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f>SUM(E2-C2*$B$5)</f>
         <v>74</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="8" t="str">
+      <c r="H2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="1" t="str">
         <f>_xlfn.CONCAT(A2,J2,H2,B1,J2,B2,I2,C1,J2,C2,I2,F1,J2,F2,I2,G1,J2,G2,K2,I2)</f>
         <v>Shrine_Earth_Outside:{TileX:6,TileY:31,PlayerX:266,PlayerY:74},</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="A4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="6">
         <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="6">
         <v>240</v>
       </c>
     </row>
@@ -4055,1056 +4531,962 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E57697-7125-431C-8E9A-2A46B6506042}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="28"/>
-    <col min="2" max="2" width="40.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="30"/>
-    <col min="7" max="16384" width="8.85546875" style="28"/>
+    <col min="1" max="1" width="8.85546875" style="17"/>
+    <col min="2" max="2" width="40.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>2</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C15" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>13</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>15</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>16</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>17</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>18</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>19</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>20</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>21</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>22</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>23</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>24</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>25</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>26</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>27</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>28</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>29</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>30</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>31</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>32</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="22"/>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>33</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>34</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>35</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="22"/>
+    </row>
+    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>36</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>37</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>38</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+    </row>
+    <row r="66" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="C66" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B67" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B70" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C71" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
-        <v>1</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>298</v>
-      </c>
-      <c r="K3" s="31"/>
-    </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
-        <v>2</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
-        <v>2</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
-        <v>3</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="44"/>
-    </row>
-    <row r="7" spans="1:11" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>4</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="44"/>
-      <c r="K7" s="31"/>
-    </row>
-    <row r="8" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>5</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="K8" s="31"/>
-    </row>
-    <row r="9" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>6</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="E9" s="44"/>
-      <c r="K9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>7</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>227</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="K10" s="31"/>
-    </row>
-    <row r="11" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>8</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E11" s="44"/>
-      <c r="K11" s="31"/>
-    </row>
-    <row r="12" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
-        <v>9</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
-        <v>10</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>258</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>256</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>257</v>
-      </c>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="28">
-        <v>11</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="K14" s="31"/>
-    </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
-        <v>12</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="K15" s="31"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
-        <v>13</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
-        <v>14</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="38" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
-        <v>15</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="K18" s="31"/>
-    </row>
-    <row r="19" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
-        <v>16</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="K19" s="31"/>
-    </row>
-    <row r="20" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
-        <v>17</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>261</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="E20" s="45"/>
-    </row>
-    <row r="21" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <v>18</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="E21" s="45"/>
-    </row>
-    <row r="22" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
-        <v>19</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="E22" s="45"/>
-    </row>
-    <row r="23" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
-        <v>20</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="E23" s="45"/>
-    </row>
-    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
-        <v>21</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="E24" s="45"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
-        <v>22</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
-        <v>23</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
-        <v>24</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
-        <v>25</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
-        <v>26</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
-        <v>27</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="E30" s="33"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
-        <v>28</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="28"/>
-    </row>
-    <row r="32" spans="1:11" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
-        <v>29</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="K32" s="31"/>
-    </row>
-    <row r="33" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
-        <v>30</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="E33" s="33" t="s">
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="16" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
-        <v>31</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
-        <v>32</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-    </row>
-    <row r="36" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
-        <v>33</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
-        <v>34</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
-        <v>35</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-    </row>
-    <row r="39" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="28">
-        <v>36</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="28">
-        <v>37</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="28">
-        <v>38</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>251</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>279</v>
-      </c>
-      <c r="K41" s="31"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="31"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="28"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="E44" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="F44" s="28"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="28"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="28"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="F47" s="28"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F48" s="28"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="F49" s="28"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="31" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="28"/>
-    </row>
-    <row r="66" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B66" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C66" s="32" t="s">
-        <v>236</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F66" s="28"/>
-    </row>
-    <row r="67" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B67" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="E67" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="F67" s="28"/>
-    </row>
-    <row r="68" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B68" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C68" s="32" t="s">
-        <v>234</v>
-      </c>
-      <c r="E68" s="32" t="s">
-        <v>233</v>
-      </c>
-      <c r="F68" s="28"/>
-    </row>
-    <row r="69" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B69" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="F69" s="28"/>
-    </row>
-    <row r="70" spans="2:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B70" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="E70" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="F70" s="28"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="28" t="s">
-        <v>317</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="F73" s="28"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="F74" s="28"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="F75" s="28"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="F76" s="28"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="F77" s="28"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="F78" s="28"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F79" s="28"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="F80" s="28"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="F81" s="28"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="F82" s="28"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Planning/Menus.xlsx
+++ b/Planning/Menus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Repos\ZeldasAdventureRemastered\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C86827F-F033-470E-9FF8-09C070C1ED26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32743F9-031A-43B0-A93C-4844A701A532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="46770" yWindow="5100" windowWidth="28800" windowHeight="15435" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="1" r:id="rId1"/>
@@ -2698,7 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A56A5F7-2FBC-4A35-A9C1-2015521BEBEF}">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F35" sqref="F35:F42"/>
     </sheetView>
   </sheetViews>
@@ -4416,8 +4416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF75A49-A9C3-4B7E-8E19-E6842D7A7CB4}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4472,24 +4472,24 @@
         <v>69</v>
       </c>
       <c r="B2" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D2" s="14">
-        <v>2570</v>
+        <v>3904</v>
       </c>
       <c r="E2" s="14">
-        <v>7514</v>
+        <v>5188</v>
       </c>
       <c r="F2" s="6">
         <f>SUM(D2-B2*$B$4)</f>
-        <v>266</v>
+        <v>64</v>
       </c>
       <c r="G2" s="6">
         <f>SUM(E2-C2*$B$5)</f>
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>64</v>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="L2" s="1" t="str">
         <f>_xlfn.CONCAT(A2,J2,H2,B1,J2,B2,I2,C1,J2,C2,I2,F1,J2,F2,I2,G1,J2,G2,K2,I2)</f>
-        <v>Shrine_Earth_Outside:{TileX:6,TileY:31,PlayerX:266,PlayerY:74},</v>
+        <v>Shrine_Earth_Outside:{TileX:10,TileY:21,PlayerX:64,PlayerY:148},</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">

--- a/Planning/Menus.xlsx
+++ b/Planning/Menus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Repos\ZeldasAdventureRemastered\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32743F9-031A-43B0-A93C-4844A701A532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C234C32D-FA47-48F1-8A0E-918417E944CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
+    <workbookView xWindow="47115" yWindow="5445" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="1" r:id="rId1"/>
@@ -4417,7 +4417,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4472,24 +4472,24 @@
         <v>69</v>
       </c>
       <c r="B2" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="6">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D2" s="14">
-        <v>3904</v>
+        <v>4696</v>
       </c>
       <c r="E2" s="14">
-        <v>5188</v>
+        <v>7572</v>
       </c>
       <c r="F2" s="6">
         <f>SUM(D2-B2*$B$4)</f>
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="G2" s="6">
         <f>SUM(E2-C2*$B$5)</f>
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>64</v>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="L2" s="1" t="str">
         <f>_xlfn.CONCAT(A2,J2,H2,B1,J2,B2,I2,C1,J2,C2,I2,F1,J2,F2,I2,G1,J2,G2,K2,I2)</f>
-        <v>Shrine_Earth_Outside:{TileX:10,TileY:21,PlayerX:64,PlayerY:148},</v>
+        <v>Shrine_Earth_Outside:{TileX:12,TileY:31,PlayerX:88,PlayerY:132},</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">

--- a/Planning/Menus.xlsx
+++ b/Planning/Menus.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Repos\ZeldasAdventureRemastered\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C234C32D-FA47-48F1-8A0E-918417E944CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A309C1CF-67CF-474D-AEEB-14D0E36D0F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47115" yWindow="5445" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{DF5BDE45-B0CE-4D37-9904-0D0A618A5DAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Menu" sheetId="1" r:id="rId1"/>
     <sheet name="Variables &amp; Scripts" sheetId="2" r:id="rId2"/>
-    <sheet name="OffsetCalculator" sheetId="3" r:id="rId3"/>
-    <sheet name="Items" sheetId="5" r:id="rId4"/>
+    <sheet name="Items" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="320">
   <si>
     <t>"Settings"</t>
   </si>
@@ -293,58 +292,7 @@
     <t>CurrentLocation</t>
   </si>
   <si>
-    <t>TileX</t>
-  </si>
-  <si>
-    <t>TileY</t>
-  </si>
-  <si>
-    <t>PlayerX</t>
-  </si>
-  <si>
-    <t>PlayerY</t>
-  </si>
-  <si>
-    <t>RealX</t>
-  </si>
-  <si>
-    <t>RealY</t>
-  </si>
-  <si>
-    <t>Tile Width</t>
-  </si>
-  <si>
-    <t>Tile Height</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>Is</t>
-  </si>
-  <si>
-    <t>Divider</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>Code</t>
-  </si>
-  <si>
-    <t>Shrine_Earth_Outside</t>
   </si>
   <si>
     <t>array_create(0)</t>
@@ -2112,7 +2060,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2144,13 +2092,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2202,7 +2143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2242,12 +2183,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2296,9 +2231,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2333,46 +2268,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2723,7 +2646,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2745,10 +2668,10 @@
         <v>31</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2762,7 +2685,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
@@ -2779,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -2796,7 +2719,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="E5" s="6">
         <v>2</v>
@@ -2843,16 +2766,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2868,7 +2791,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2890,30 +2813,30 @@
         <v>31</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2924,16 +2847,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2944,16 +2867,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>16</v>
@@ -2969,16 +2892,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>7</v>
@@ -2988,7 +2911,7 @@
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -3015,13 +2938,13 @@
         <v>31</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="9" t="s">
@@ -3045,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="6"/>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J19" s="3"/>
@@ -3053,16 +2976,16 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B20" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="F20" s="6">
         <v>3</v>
@@ -3076,16 +2999,16 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
@@ -3105,7 +3028,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="F22" s="6">
         <v>1</v>
@@ -3118,7 +3041,7 @@
       <c r="A23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3143,23 +3066,23 @@
         <v>7</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="D24" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="I24" s="3"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3184,13 +3107,13 @@
         <v>31</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="I26" s="3"/>
       <c r="M26" s="1"/>
@@ -3203,7 +3126,7 @@
         <v>41</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>46</v>
@@ -3226,7 +3149,7 @@
         <v>41</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>46</v>
@@ -3249,7 +3172,7 @@
         <v>41</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>46</v>
@@ -3272,7 +3195,7 @@
         <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>46</v>
@@ -3295,23 +3218,23 @@
         <v>7</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F31" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="G31" s="6" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="I31" s="3"/>
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3336,29 +3259,29 @@
         <v>31</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="I33" s="3"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="F34" s="6">
         <v>0</v>
@@ -3367,129 +3290,129 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>313</v>
+        <v>288</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="C35" s="6" t="str">
         <f>_xlfn.CONCAT("SetInput(",A35,",arg0,global.CurrentConfigDevice)")</f>
         <v>SetInput("Left",arg0,global.CurrentConfigDevice)</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>313</v>
+        <v>289</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="C36" s="6" t="str">
         <f t="shared" ref="C36:C42" si="0">_xlfn.CONCAT("SetInput(",A36,",arg0,global.CurrentConfigDevice)")</f>
         <v>SetInput("Right",arg0,global.CurrentConfigDevice)</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>313</v>
+        <v>290</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="C37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SetInput("Up",arg0,global.CurrentConfigDevice)</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>313</v>
+        <v>291</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="C38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SetInput("Down",arg0,global.CurrentConfigDevice)</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>313</v>
+        <v>292</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="C39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SetInput("Action",arg0,global.CurrentConfigDevice)</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>313</v>
+        <v>293</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="C40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SetInput("Special",arg0,global.CurrentConfigDevice)</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>313</v>
+        <v>294</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="C41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SetInput("Inventory",arg0,global.CurrentConfigDevice)</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>313</v>
+        <v>295</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="C42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>SetInput("Menu",arg0,global.CurrentConfigDevice)</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="G42" s="6"/>
     </row>
@@ -3501,13 +3424,13 @@
         <v>7</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -3700,7 +3623,7 @@
       <c r="G106" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3728,30 +3651,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -3764,18 +3687,18 @@
         <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1">
         <v>8</v>
@@ -3793,13 +3716,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -3812,18 +3735,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -3841,16 +3764,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3865,16 +3788,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3889,16 +3812,16 @@
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3913,13 +3836,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -3931,16 +3854,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="str">
         <f>_xlfn.CONCAT(A10,B10," = ",D10,";")</f>
@@ -3949,16 +3872,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>_xlfn.CONCAT(A11,B11," = ",D11,";")</f>
@@ -3967,16 +3890,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>_xlfn.CONCAT(A12,B12," = ",D12,";")</f>
@@ -3985,16 +3908,16 @@
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="E13" s="3" t="str">
         <f>_xlfn.CONCAT(A13," ",B13," ",D13,";")</f>
@@ -4006,28 +3929,28 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="str">
         <f t="shared" ref="E17:E22" si="1">_xlfn.CONCAT(A17,B17," = ",D17,";")</f>
@@ -4036,13 +3959,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -4054,13 +3977,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -4072,16 +3995,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4090,16 +4013,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E21" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4108,16 +4031,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4127,24 +4050,24 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
@@ -4156,13 +4079,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1">
         <v>60</v>
@@ -4174,13 +4097,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1">
         <v>60</v>
@@ -4192,13 +4115,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1">
         <v>10</v>
@@ -4210,16 +4133,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4228,13 +4151,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
@@ -4246,16 +4169,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="E31" s="1" t="str">
         <f>_xlfn.CONCAT(A31,B31," = ",D31,";")</f>
@@ -4264,16 +4187,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4282,16 +4205,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4300,16 +4223,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4318,16 +4241,16 @@
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E35" s="3" t="str">
         <f>_xlfn.CONCAT(A35,B35," = ",D35,";")</f>
@@ -4413,1087 +4336,970 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF75A49-A9C3-4B7E-8E19-E6842D7A7CB4}">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="49.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="6">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6">
-        <v>31</v>
-      </c>
-      <c r="D2" s="14">
-        <v>4696</v>
-      </c>
-      <c r="E2" s="14">
-        <v>7572</v>
-      </c>
-      <c r="F2" s="6">
-        <f>SUM(D2-B2*$B$4)</f>
-        <v>88</v>
-      </c>
-      <c r="G2" s="6">
-        <f>SUM(E2-C2*$B$5)</f>
-        <v>132</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="1" t="str">
-        <f>_xlfn.CONCAT(A2,J2,H2,B1,J2,B2,I2,C1,J2,C2,I2,F1,J2,F2,I2,G1,J2,G2,K2,I2)</f>
-        <v>Shrine_Earth_Outside:{TileX:12,TileY:31,PlayerX:88,PlayerY:132},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="6">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="6">
-        <v>240</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E57697-7125-431C-8E9A-2A46B6506042}">
   <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="17"/>
-    <col min="2" max="2" width="40.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="17"/>
+    <col min="1" max="1" width="8.85546875" style="13"/>
+    <col min="2" max="2" width="40.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>4</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>6</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>7</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>8</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>11</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>13</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>14</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>16</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>18</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>19</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>20</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>21</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="21"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>22</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>23</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>24</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>25</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="18"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>26</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" s="18"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>27</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>28</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>29</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>30</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>31</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>32</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="18"/>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>33</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>34</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>35</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>36</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>37</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>38</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B66" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B67" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B68" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B69" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>2</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>3</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="25"/>
-    </row>
-    <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>5</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>6</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>7</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="25"/>
-    </row>
-    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>8</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="25"/>
-    </row>
-    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>10</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>11</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>12</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>13</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="19" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>15</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>16</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>17</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="E20" s="25"/>
-    </row>
-    <row r="21" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>18</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <v>19</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="E22" s="25"/>
-    </row>
-    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="17">
-        <v>20</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="17">
-        <v>21</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="17">
-        <v>22</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="17">
-        <v>23</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>24</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
-        <v>25</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="22"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
-        <v>26</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C29" s="22"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
-        <v>27</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
-        <v>28</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <v>29</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17">
-        <v>30</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="17">
-        <v>31</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C34" s="22"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
-        <v>32</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="22"/>
-    </row>
-    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <v>33</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
-        <v>34</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
-        <v>35</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="22"/>
-    </row>
-    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
-        <v>36</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
-        <v>37</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
-        <v>38</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-    </row>
-    <row r="66" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B66" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B67" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B68" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B69" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B70" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E5:E11"/>
     <mergeCell ref="E18:E24"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B75" r:id="rId1" location="Alligator_Shoes" xr:uid="{857E2DE7-8287-4040-995C-D2BFBB49E5B0}"/>
   </hyperlinks>
